--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40519.78528513008</v>
+        <v>-83368.07553983924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10417451.42146188</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22002153.75219174</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4209783.131211441</v>
+        <v>4209743.930150286</v>
       </c>
     </row>
     <row r="11">
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M14" t="n">
         <v>4.586202945486093</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,16 +9087,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O16" t="n">
         <v>56.93882853040725</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M23" t="n">
         <v>4.586202945486093</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,16 +9798,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O25" t="n">
         <v>56.93882853040725</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
         <v>4.586202945486093</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,16 +10035,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
         <v>56.93882853040725</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
         <v>4.586202945486093</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,16 +10272,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
         <v>56.93882853040725</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
         <v>4.586202945486093</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,16 +10509,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
         <v>56.93882853040725</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
         <v>4.586202945486093</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
         <v>56.93882853040725</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L44" t="n">
-        <v>28.83625887535973</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L46" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363649.0043600992</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>65754.53449505375</v>
       </c>
       <c r="F2" t="n">
+        <v>65754.53449505375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65754.53449505374</v>
+      </c>
+      <c r="H2" t="n">
         <v>65754.53449505377</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>65754.53449505375</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>65754.53449505375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>65754.53449505377</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65754.53449505377</v>
       </c>
       <c r="K2" t="n">
         <v>65754.53449505377</v>
       </c>
       <c r="L2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="M2" t="n">
         <v>65754.53449505375</v>
       </c>
       <c r="N2" t="n">
+        <v>65754.53449505377</v>
+      </c>
+      <c r="O2" t="n">
         <v>65754.53449505375</v>
       </c>
-      <c r="O2" t="n">
-        <v>65754.53449505377</v>
-      </c>
       <c r="P2" t="n">
-        <v>65873.28937659846</v>
+        <v>65754.53449505375</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4233.205454181082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>10328.63406743434</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="G5" t="n">
         <v>6972.10256325733</v>
@@ -26490,16 +26490,16 @@
         <v>6972.10256325733</v>
       </c>
       <c r="I5" t="n">
+        <v>6972.10256325733</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6972.10256325733</v>
+      </c>
+      <c r="K5" t="n">
         <v>6972.102563257328</v>
       </c>
-      <c r="J5" t="n">
-        <v>6972.102563257328</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>6972.10256325733</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
         <v>6972.10256325733</v>
@@ -26508,10 +26508,10 @@
         <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>-209060.6029873104</v>
+        <v>-223608.9622798217</v>
       </c>
       <c r="F6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516125</v>
       </c>
       <c r="G6" t="n">
-        <v>47884.72341767254</v>
+        <v>33336.36412516124</v>
       </c>
       <c r="H6" t="n">
-        <v>47884.72341767254</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="I6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516125</v>
       </c>
       <c r="J6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516125</v>
       </c>
       <c r="K6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="L6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516125</v>
       </c>
       <c r="M6" t="n">
-        <v>47884.72341767254</v>
+        <v>33336.36412516125</v>
       </c>
       <c r="N6" t="n">
-        <v>47884.72341767254</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="O6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516125</v>
       </c>
       <c r="P6" t="n">
-        <v>44200.69463763189</v>
+        <v>33336.36412516125</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.360213490542151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31995,7 +31995,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J14" t="n">
         <v>109.1233211798925</v>
@@ -32004,7 +32004,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
@@ -32095,13 +32095,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
@@ -32110,7 +32110,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H16" t="n">
         <v>5.127625437558785</v>
@@ -32159,16 +32159,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O16" t="n">
         <v>81.51770992143554</v>
@@ -32177,7 +32177,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32706,7 +32706,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J23" t="n">
         <v>109.1233211798925</v>
@@ -32715,7 +32715,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
@@ -32806,13 +32806,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
@@ -32821,7 +32821,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H25" t="n">
         <v>5.127625437558785</v>
@@ -32870,16 +32870,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O25" t="n">
         <v>81.51770992143554</v>
@@ -32888,7 +32888,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32943,7 +32943,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J26" t="n">
         <v>109.1233211798925</v>
@@ -32952,7 +32952,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
@@ -33043,13 +33043,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
@@ -33058,7 +33058,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H28" t="n">
         <v>5.127625437558785</v>
@@ -33107,16 +33107,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O28" t="n">
         <v>81.51770992143554</v>
@@ -33125,7 +33125,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33180,7 +33180,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
         <v>109.1233211798925</v>
@@ -33189,7 +33189,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
@@ -33280,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
@@ -33295,7 +33295,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
         <v>5.127625437558785</v>
@@ -33344,16 +33344,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
         <v>81.51770992143554</v>
@@ -33362,7 +33362,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,7 +33417,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
         <v>109.1233211798925</v>
@@ -33426,7 +33426,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
@@ -33517,13 +33517,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
@@ -33532,7 +33532,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
         <v>5.127625437558785</v>
@@ -33581,16 +33581,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
         <v>81.51770992143554</v>
@@ -33599,7 +33599,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -34128,7 +34128,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
         <v>109.1233211798925</v>
@@ -34137,7 +34137,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
@@ -34228,13 +34228,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
@@ -34243,7 +34243,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
         <v>5.127625437558785</v>
@@ -34292,16 +34292,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
         <v>81.51770992143554</v>
@@ -34310,7 +34310,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024956</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83368.07553983924</v>
+        <v>27664.23093113818</v>
       </c>
     </row>
     <row r="7">
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
         <v>4.586202945486093</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,16 +8850,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
         <v>56.93882853040725</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
         <v>4.586202945486093</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,16 +9087,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
         <v>56.93882853040725</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M29" t="n">
         <v>4.586202945486093</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,16 +10272,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O31" t="n">
         <v>56.93882853040725</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
         <v>151.3616578248528</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26046,7 +26046,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="C2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="D2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
+        <v>65754.53449505377</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65754.53449505377</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65754.53449505377</v>
+      </c>
+      <c r="H2" t="n">
         <v>65754.53449505375</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65754.53449505375</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65754.53449505374</v>
-      </c>
-      <c r="H2" t="n">
-        <v>65754.53449505377</v>
       </c>
       <c r="I2" t="n">
         <v>65754.53449505375</v>
@@ -26340,22 +26340,22 @@
         <v>65754.53449505375</v>
       </c>
       <c r="K2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="L2" t="n">
         <v>65754.53449505375</v>
       </c>
       <c r="M2" t="n">
-        <v>65754.53449505375</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="N2" t="n">
         <v>65754.53449505377</v>
       </c>
       <c r="O2" t="n">
-        <v>65754.53449505375</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="P2" t="n">
-        <v>65754.53449505375</v>
+        <v>65754.53449505377</v>
       </c>
     </row>
     <row r="3">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
         <v>6972.10256325733</v>
@@ -26496,7 +26496,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="L5" t="n">
         <v>6972.10256325733</v>
@@ -26508,10 +26508,10 @@
         <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="C6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385885</v>
       </c>
       <c r="D6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="E6" t="n">
-        <v>-223608.9622798217</v>
+        <v>-210515.4389165615</v>
       </c>
       <c r="F6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="G6" t="n">
-        <v>33336.36412516124</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="H6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="I6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="J6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="K6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="L6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="M6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="N6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="O6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="P6" t="n">
-        <v>33336.36412516125</v>
+        <v>46429.88748842142</v>
       </c>
     </row>
   </sheetData>
@@ -31758,7 +31758,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
         <v>109.1233211798925</v>
@@ -31767,7 +31767,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
@@ -31858,13 +31858,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
@@ -31873,7 +31873,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
         <v>5.127625437558785</v>
@@ -31922,16 +31922,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
         <v>81.51770992143554</v>
@@ -31940,7 +31940,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31995,7 +31995,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
         <v>109.1233211798925</v>
@@ -32004,7 +32004,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
@@ -32095,13 +32095,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
@@ -32110,7 +32110,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
         <v>5.127625437558785</v>
@@ -32159,16 +32159,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
         <v>81.51770992143554</v>
@@ -32177,7 +32177,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -33180,7 +33180,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J29" t="n">
         <v>109.1233211798925</v>
@@ -33189,7 +33189,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
@@ -33280,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
@@ -33295,7 +33295,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H31" t="n">
         <v>5.127625437558785</v>
@@ -33344,16 +33344,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O31" t="n">
         <v>81.51770992143554</v>
@@ -33362,7 +33362,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34365,16 +34365,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34392,13 +34392,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,37 +34517,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
